--- a/trunk/doc/05.文档模板/成都信息工程大学-XXX班X组_进度跟踪表.xlsx
+++ b/trunk/doc/05.文档模板/成都信息工程大学-XXX班X组_进度跟踪表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\实训流程标准化\2、文档模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\工程实践2\trunk\doc\05.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFE388-F662-40F7-9DA8-819DEC2BF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEFD291-2C9D-4B19-8FE0-9EFD41430DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="进度跟踪" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX</t>
+    <t>鸿蒙业务分解（思维导图）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX业务WBS分解（思维导图）</t>
+    <t>蒋昌平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯国栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +768,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1154,7 +1169,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1199,14 +1214,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8">
+        <v>45270</v>
+      </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1214,20 +1231,36 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45275</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45277</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:21">
